--- a/Code/Results/Cases/Case_0_66/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_66/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.919704163773933</v>
+        <v>1.012165647470493</v>
       </c>
       <c r="D2">
-        <v>0.9290438829080868</v>
+        <v>1.014811027772548</v>
       </c>
       <c r="E2">
-        <v>0.9373410779433036</v>
+        <v>1.014247446349982</v>
       </c>
       <c r="F2">
-        <v>0.8222825110023998</v>
+        <v>1.014780947268809</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.015746054782945</v>
+        <v>1.023038559704333</v>
       </c>
       <c r="J2">
-        <v>0.9445838059402998</v>
+        <v>1.0174099303484</v>
       </c>
       <c r="K2">
-        <v>0.9415890290955999</v>
+        <v>1.017668062636548</v>
       </c>
       <c r="L2">
-        <v>0.9497483431042003</v>
+        <v>1.0171061698744</v>
       </c>
       <c r="M2">
-        <v>0.8369343473891032</v>
+        <v>1.017638072211476</v>
       </c>
       <c r="N2">
-        <v>0.9459252232900119</v>
+        <v>1.018854769148045</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9354058636977548</v>
+        <v>1.013911306951471</v>
       </c>
       <c r="D3">
-        <v>0.9438448064902987</v>
+        <v>1.016467873830169</v>
       </c>
       <c r="E3">
-        <v>0.9504699606910338</v>
+        <v>1.015744682139577</v>
       </c>
       <c r="F3">
-        <v>0.8643240097768314</v>
+        <v>1.017689380109776</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023767914250566</v>
+        <v>1.023341304150576</v>
       </c>
       <c r="J3">
-        <v>0.9578269522837068</v>
+        <v>1.018784939528664</v>
       </c>
       <c r="K3">
-        <v>0.9552504703824188</v>
+        <v>1.019127572552041</v>
       </c>
       <c r="L3">
-        <v>0.9617784292680364</v>
+        <v>1.018406387168591</v>
       </c>
       <c r="M3">
-        <v>0.8770478941799351</v>
+        <v>1.020345697098052</v>
       </c>
       <c r="N3">
-        <v>0.9591871764202367</v>
+        <v>1.02023173099906</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9440307437972255</v>
+        <v>1.015028022685198</v>
       </c>
       <c r="D4">
-        <v>0.9519432558160201</v>
+        <v>1.017527532453945</v>
       </c>
       <c r="E4">
-        <v>0.9576744752763192</v>
+        <v>1.016702796726788</v>
       </c>
       <c r="F4">
-        <v>0.885816121398977</v>
+        <v>1.019518802689477</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027855545077543</v>
+        <v>1.023523697959828</v>
       </c>
       <c r="J4">
-        <v>0.9649832312408619</v>
+        <v>1.01966169489643</v>
       </c>
       <c r="K4">
-        <v>0.9626585070874908</v>
+        <v>1.020059127607024</v>
       </c>
       <c r="L4">
-        <v>0.9683120796386674</v>
+        <v>1.019236562013047</v>
       </c>
       <c r="M4">
-        <v>0.8975206262836064</v>
+        <v>1.022045173828678</v>
       </c>
       <c r="N4">
-        <v>0.9663536181143475</v>
+        <v>1.021109731460014</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9474081781460536</v>
+        <v>1.015494476271415</v>
       </c>
       <c r="D5">
-        <v>0.9551096010237513</v>
+        <v>1.017970095236988</v>
       </c>
       <c r="E5">
-        <v>0.9604951603518327</v>
+        <v>1.017103078186925</v>
       </c>
       <c r="F5">
-        <v>0.8939592540587461</v>
+        <v>1.020275525039779</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029397291991587</v>
+        <v>1.023597172999848</v>
       </c>
       <c r="J5">
-        <v>0.9677648541657868</v>
+        <v>1.02002723344293</v>
       </c>
       <c r="K5">
-        <v>0.9655427109137631</v>
+        <v>1.020447734246874</v>
       </c>
       <c r="L5">
-        <v>0.9708577180193086</v>
+        <v>1.01958294663798</v>
       </c>
       <c r="M5">
-        <v>0.9052695941029751</v>
+        <v>1.022747255763258</v>
       </c>
       <c r="N5">
-        <v>0.9691391912628826</v>
+        <v>1.021475789113178</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9479627969949135</v>
+        <v>1.015572620861958</v>
       </c>
       <c r="D6">
-        <v>0.9556293135064294</v>
+        <v>1.018044234017085</v>
       </c>
       <c r="E6">
-        <v>0.9609583415806815</v>
+        <v>1.017170141451349</v>
       </c>
       <c r="F6">
-        <v>0.8952824525916729</v>
+        <v>1.020401862657957</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029647323471759</v>
+        <v>1.023609322736973</v>
       </c>
       <c r="J6">
-        <v>0.9682205546335614</v>
+        <v>1.020088431693858</v>
       </c>
       <c r="K6">
-        <v>0.9660154676707646</v>
+        <v>1.020512807540291</v>
       </c>
       <c r="L6">
-        <v>0.9712750781093343</v>
+        <v>1.01964095382505</v>
       </c>
       <c r="M6">
-        <v>0.9065282786412152</v>
+        <v>1.02286441810649</v>
       </c>
       <c r="N6">
-        <v>0.969595538877591</v>
+        <v>1.021537074272642</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9440767484706166</v>
+        <v>1.015034267223736</v>
       </c>
       <c r="D7">
-        <v>0.951986402738748</v>
+        <v>1.01753345738836</v>
       </c>
       <c r="E7">
-        <v>0.9577128975719031</v>
+        <v>1.016708155103394</v>
       </c>
       <c r="F7">
-        <v>0.885928038673609</v>
+        <v>1.019528962375987</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027876766778127</v>
+        <v>1.023524692286537</v>
       </c>
       <c r="J7">
-        <v>0.9650211967379757</v>
+        <v>1.019666591151257</v>
       </c>
       <c r="K7">
-        <v>0.9626978549520759</v>
+        <v>1.020064331978332</v>
       </c>
       <c r="L7">
-        <v>0.9683468016485188</v>
+        <v>1.019241200656053</v>
       </c>
       <c r="M7">
-        <v>0.8976271583944923</v>
+        <v>1.022054603462768</v>
       </c>
       <c r="N7">
-        <v>0.966391637526822</v>
+        <v>1.021114634668085</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9254362179451715</v>
+        <v>1.01275829815547</v>
       </c>
       <c r="D8">
-        <v>0.9344570120648478</v>
+        <v>1.015373576949917</v>
       </c>
       <c r="E8">
-        <v>0.9421367389790607</v>
+        <v>1.014755690732203</v>
       </c>
       <c r="F8">
-        <v>0.8381078705031477</v>
+        <v>1.015774871811594</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.018765037902962</v>
+        <v>1.023143687643323</v>
       </c>
       <c r="J8">
-        <v>0.9494530157879271</v>
+        <v>1.017877340333717</v>
       </c>
       <c r="K8">
-        <v>0.9466046298274255</v>
+        <v>1.018164005428259</v>
       </c>
       <c r="L8">
-        <v>0.9541620669889441</v>
+        <v>1.017547924114381</v>
       </c>
       <c r="M8">
-        <v>0.8520423009083831</v>
+        <v>1.018564129348913</v>
       </c>
       <c r="N8">
-        <v>0.9508013479741292</v>
+        <v>1.019322842909153</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9254362179451715</v>
+        <v>1.008646478980307</v>
       </c>
       <c r="D9">
-        <v>0.9344570120648478</v>
+        <v>1.011469580297998</v>
       </c>
       <c r="E9">
-        <v>0.9421367389790607</v>
+        <v>1.011230828879749</v>
       </c>
       <c r="F9">
-        <v>0.8381078705031477</v>
+        <v>1.008747308339223</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.018765037902962</v>
+        <v>1.022367454386645</v>
       </c>
       <c r="J9">
-        <v>0.9494530157879271</v>
+        <v>1.014622491928608</v>
       </c>
       <c r="K9">
-        <v>0.9466046298274255</v>
+        <v>1.014714312314066</v>
       </c>
       <c r="L9">
-        <v>0.9541620669889441</v>
+        <v>1.014476382028318</v>
       </c>
       <c r="M9">
-        <v>0.8520423009083831</v>
+        <v>1.01200142837174</v>
       </c>
       <c r="N9">
-        <v>0.9508013479741292</v>
+        <v>1.016063372245973</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9254362179451715</v>
+        <v>1.005832833329844</v>
       </c>
       <c r="D10">
-        <v>0.9344570120648478</v>
+        <v>1.008796833167907</v>
       </c>
       <c r="E10">
-        <v>0.9421367389790607</v>
+        <v>1.008820543878717</v>
       </c>
       <c r="F10">
-        <v>0.8381078705031477</v>
+        <v>1.003769822999736</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.018765037902962</v>
+        <v>1.021777237823404</v>
       </c>
       <c r="J10">
-        <v>0.9494530157879271</v>
+        <v>1.012380079595129</v>
       </c>
       <c r="K10">
-        <v>0.9466046298274255</v>
+        <v>1.012342526683091</v>
       </c>
       <c r="L10">
-        <v>0.9541620669889441</v>
+        <v>1.012366147546186</v>
       </c>
       <c r="M10">
-        <v>0.8520423009083831</v>
+        <v>1.00733467180681</v>
       </c>
       <c r="N10">
-        <v>0.9508013479741292</v>
+        <v>1.013817775429773</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9254362179451715</v>
+        <v>1.004596263617348</v>
       </c>
       <c r="D11">
-        <v>0.9344570120648478</v>
+        <v>1.007621867930976</v>
       </c>
       <c r="E11">
-        <v>0.9421367389790607</v>
+        <v>1.007761659066393</v>
       </c>
       <c r="F11">
-        <v>0.8381078705031477</v>
+        <v>1.001541439819525</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018765037902962</v>
+        <v>1.021503858276539</v>
       </c>
       <c r="J11">
-        <v>0.9494530157879271</v>
+        <v>1.011390929186265</v>
       </c>
       <c r="K11">
-        <v>0.9466046298274255</v>
+        <v>1.011297463688668</v>
       </c>
       <c r="L11">
-        <v>0.9541620669889441</v>
+        <v>1.011436703752643</v>
       </c>
       <c r="M11">
-        <v>0.8520423009083831</v>
+        <v>1.00524117088926</v>
       </c>
       <c r="N11">
-        <v>0.9508013479741292</v>
+        <v>1.012827220313871</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9254362179451715</v>
+        <v>1.00413410963464</v>
       </c>
       <c r="D12">
-        <v>0.9344570120648478</v>
+        <v>1.007182689123523</v>
       </c>
       <c r="E12">
-        <v>0.9421367389790607</v>
+        <v>1.007365975039413</v>
       </c>
       <c r="F12">
-        <v>0.8381078705031477</v>
+        <v>1.000702393736418</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018765037902962</v>
+        <v>1.021399584338426</v>
       </c>
       <c r="J12">
-        <v>0.9494530157879271</v>
+        <v>1.011020696270859</v>
       </c>
       <c r="K12">
-        <v>0.9466046298274255</v>
+        <v>1.010906476938684</v>
       </c>
       <c r="L12">
-        <v>0.9541620669889441</v>
+        <v>1.011089029886262</v>
       </c>
       <c r="M12">
-        <v>0.8520423009083831</v>
+        <v>1.004452288751216</v>
       </c>
       <c r="N12">
-        <v>0.9508013479741292</v>
+        <v>1.012456461625258</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9254362179451715</v>
+        <v>1.004233373220064</v>
       </c>
       <c r="D13">
-        <v>0.9344570120648478</v>
+        <v>1.007277020215836</v>
       </c>
       <c r="E13">
-        <v>0.9421367389790607</v>
+        <v>1.007450959079233</v>
       </c>
       <c r="F13">
-        <v>0.8381078705031477</v>
+        <v>1.000882890230933</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018765037902962</v>
+        <v>1.021422075816191</v>
       </c>
       <c r="J13">
-        <v>0.9494530157879271</v>
+        <v>1.011100241509143</v>
       </c>
       <c r="K13">
-        <v>0.9466046298274255</v>
+        <v>1.010990473309029</v>
       </c>
       <c r="L13">
-        <v>0.9541620669889441</v>
+        <v>1.01116371870927</v>
       </c>
       <c r="M13">
-        <v>0.8520423009083831</v>
+        <v>1.004622021867884</v>
       </c>
       <c r="N13">
-        <v>0.9508013479741292</v>
+        <v>1.012536119826905</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9254362179451715</v>
+        <v>1.004558120274623</v>
       </c>
       <c r="D14">
-        <v>0.9344570120648478</v>
+        <v>1.007585621816855</v>
       </c>
       <c r="E14">
-        <v>0.9421367389790607</v>
+        <v>1.00772900047544</v>
       </c>
       <c r="F14">
-        <v>0.8381078705031477</v>
+        <v>1.001472317108231</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018765037902962</v>
+        <v>1.021495294941363</v>
       </c>
       <c r="J14">
-        <v>0.9494530157879271</v>
+        <v>1.011360383643868</v>
       </c>
       <c r="K14">
-        <v>0.9466046298274255</v>
+        <v>1.011265202338926</v>
       </c>
       <c r="L14">
-        <v>0.9541620669889441</v>
+        <v>1.01140801510943</v>
       </c>
       <c r="M14">
-        <v>0.8520423009083831</v>
+        <v>1.005176193393203</v>
       </c>
       <c r="N14">
-        <v>0.9508013479741292</v>
+        <v>1.0127966313933</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9254362179451715</v>
+        <v>1.004757828754639</v>
       </c>
       <c r="D15">
-        <v>0.9344570120648478</v>
+        <v>1.007775394909173</v>
       </c>
       <c r="E15">
-        <v>0.9421367389790607</v>
+        <v>1.007899994786214</v>
       </c>
       <c r="F15">
-        <v>0.8381078705031477</v>
+        <v>1.00183397108711</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018765037902962</v>
+        <v>1.021540044453077</v>
       </c>
       <c r="J15">
-        <v>0.9494530157879271</v>
+        <v>1.0115202895921</v>
       </c>
       <c r="K15">
-        <v>0.9466046298274255</v>
+        <v>1.011434097642922</v>
       </c>
       <c r="L15">
-        <v>0.9541620669889441</v>
+        <v>1.011558208816757</v>
       </c>
       <c r="M15">
-        <v>0.8520423009083831</v>
+        <v>1.005516134070689</v>
       </c>
       <c r="N15">
-        <v>0.9508013479741292</v>
+        <v>1.01295676442632</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9254362179451715</v>
+        <v>1.005914507962533</v>
       </c>
       <c r="D16">
-        <v>0.9344570120648478</v>
+        <v>1.008874432111595</v>
       </c>
       <c r="E16">
-        <v>0.9421367389790607</v>
+        <v>1.008890491195339</v>
       </c>
       <c r="F16">
-        <v>0.8381078705031477</v>
+        <v>1.00391614458611</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.018765037902962</v>
+        <v>1.021795001453412</v>
       </c>
       <c r="J16">
-        <v>0.9494530157879271</v>
+        <v>1.012445335987758</v>
       </c>
       <c r="K16">
-        <v>0.9466046298274255</v>
+        <v>1.012411495937899</v>
       </c>
       <c r="L16">
-        <v>0.9541620669889441</v>
+        <v>1.012427494330877</v>
       </c>
       <c r="M16">
-        <v>0.8520423009083831</v>
+        <v>1.007472049796538</v>
       </c>
       <c r="N16">
-        <v>0.9508013479741292</v>
+        <v>1.013883124493964</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9254362179451715</v>
+        <v>1.006635112148766</v>
       </c>
       <c r="D17">
-        <v>0.9344570120648478</v>
+        <v>1.009559040388045</v>
       </c>
       <c r="E17">
-        <v>0.9421367389790607</v>
+        <v>1.009507674122961</v>
       </c>
       <c r="F17">
-        <v>0.8381078705031477</v>
+        <v>1.005202431385152</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.018765037902962</v>
+        <v>1.021950124661035</v>
       </c>
       <c r="J17">
-        <v>0.9494530157879271</v>
+        <v>1.013020667580809</v>
       </c>
       <c r="K17">
-        <v>0.9466046298274255</v>
+        <v>1.013019694094447</v>
       </c>
       <c r="L17">
-        <v>0.9541620669889441</v>
+        <v>1.012968517364111</v>
       </c>
       <c r="M17">
-        <v>0.8520423009083831</v>
+        <v>1.008679236589768</v>
       </c>
       <c r="N17">
-        <v>0.9508013479741292</v>
+        <v>1.014459273123868</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9254362179451715</v>
+        <v>1.007053675044783</v>
       </c>
       <c r="D18">
-        <v>0.9344570120648478</v>
+        <v>1.009956664615718</v>
       </c>
       <c r="E18">
-        <v>0.9421367389790607</v>
+        <v>1.009866204153707</v>
       </c>
       <c r="F18">
-        <v>0.8381078705031477</v>
+        <v>1.005945672109357</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018765037902962</v>
+        <v>1.02203889058719</v>
       </c>
       <c r="J18">
-        <v>0.9494530157879271</v>
+        <v>1.013354501791362</v>
       </c>
       <c r="K18">
-        <v>0.9466046298274255</v>
+        <v>1.01337270923263</v>
       </c>
       <c r="L18">
-        <v>0.9541620669889441</v>
+        <v>1.013282577853805</v>
       </c>
       <c r="M18">
-        <v>0.8520423009083831</v>
+        <v>1.009376371041654</v>
       </c>
       <c r="N18">
-        <v>0.9508013479741292</v>
+        <v>1.014793581417292</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9254362179451715</v>
+        <v>1.007196099603628</v>
       </c>
       <c r="D19">
-        <v>0.9344570120648478</v>
+        <v>1.01009195922532</v>
       </c>
       <c r="E19">
-        <v>0.9421367389790607</v>
+        <v>1.009988207972254</v>
       </c>
       <c r="F19">
-        <v>0.8381078705031477</v>
+        <v>1.006197915851226</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.018765037902962</v>
+        <v>1.022068868140796</v>
       </c>
       <c r="J19">
-        <v>0.9494530157879271</v>
+        <v>1.013468036905287</v>
       </c>
       <c r="K19">
-        <v>0.9466046298274255</v>
+        <v>1.013492786357886</v>
       </c>
       <c r="L19">
-        <v>0.9541620669889441</v>
+        <v>1.013389410700543</v>
       </c>
       <c r="M19">
-        <v>0.8520423009083831</v>
+        <v>1.009612898699405</v>
       </c>
       <c r="N19">
-        <v>0.9508013479741292</v>
+        <v>1.014907277764101</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9254362179451715</v>
+        <v>1.006557980171656</v>
       </c>
       <c r="D20">
-        <v>0.9344570120648478</v>
+        <v>1.009485764498548</v>
       </c>
       <c r="E20">
-        <v>0.9421367389790607</v>
+        <v>1.009441608061717</v>
       </c>
       <c r="F20">
-        <v>0.8381078705031477</v>
+        <v>1.005065154392007</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.018765037902962</v>
+        <v>1.021933659147563</v>
       </c>
       <c r="J20">
-        <v>0.9494530157879271</v>
+        <v>1.012959121264826</v>
       </c>
       <c r="K20">
-        <v>0.9466046298274255</v>
+        <v>1.012954620440218</v>
       </c>
       <c r="L20">
-        <v>0.9541620669889441</v>
+        <v>1.012910627357588</v>
       </c>
       <c r="M20">
-        <v>0.8520423009083831</v>
+        <v>1.008550442940776</v>
       </c>
       <c r="N20">
-        <v>0.9508013479741292</v>
+        <v>1.014397639405058</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9254362179451715</v>
+        <v>1.004462569476825</v>
       </c>
       <c r="D21">
-        <v>0.9344570120648478</v>
+        <v>1.007494822872056</v>
       </c>
       <c r="E21">
-        <v>0.9421367389790607</v>
+        <v>1.007647190233651</v>
       </c>
       <c r="F21">
-        <v>0.8381078705031477</v>
+        <v>1.001299061091617</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018765037902962</v>
+        <v>1.021473809499484</v>
       </c>
       <c r="J21">
-        <v>0.9494530157879271</v>
+        <v>1.011283856809561</v>
       </c>
       <c r="K21">
-        <v>0.9466046298274255</v>
+        <v>1.011184379636942</v>
       </c>
       <c r="L21">
-        <v>0.9541620669889441</v>
+        <v>1.011336143839262</v>
       </c>
       <c r="M21">
-        <v>0.8520423009083831</v>
+        <v>1.005013317366617</v>
       </c>
       <c r="N21">
-        <v>0.9508013479741292</v>
+        <v>1.012719995882111</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9254362179451715</v>
+        <v>1.0031286359874</v>
       </c>
       <c r="D22">
-        <v>0.9344570120648478</v>
+        <v>1.006227110253995</v>
       </c>
       <c r="E22">
-        <v>0.9421367389790607</v>
+        <v>1.006505229543508</v>
       </c>
       <c r="F22">
-        <v>0.8381078705031477</v>
+        <v>0.9988654566840138</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018765037902962</v>
+        <v>1.021168867884034</v>
       </c>
       <c r="J22">
-        <v>0.9494530157879271</v>
+        <v>1.010214197152283</v>
       </c>
       <c r="K22">
-        <v>0.9466046298274255</v>
+        <v>1.010055088217417</v>
       </c>
       <c r="L22">
-        <v>0.9541620669889441</v>
+        <v>1.010332060925878</v>
       </c>
       <c r="M22">
-        <v>0.8520423009083831</v>
+        <v>1.002724043203645</v>
       </c>
       <c r="N22">
-        <v>0.9508013479741292</v>
+        <v>1.011648817185427</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9254362179451715</v>
+        <v>1.003837373803135</v>
       </c>
       <c r="D23">
-        <v>0.9344570120648478</v>
+        <v>1.006900691127567</v>
       </c>
       <c r="E23">
-        <v>0.9421367389790607</v>
+        <v>1.007111935228735</v>
       </c>
       <c r="F23">
-        <v>0.8381078705031477</v>
+        <v>1.000161905883748</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018765037902962</v>
+        <v>1.021332041000067</v>
       </c>
       <c r="J23">
-        <v>0.9494530157879271</v>
+        <v>1.010782825197304</v>
       </c>
       <c r="K23">
-        <v>0.9466046298274255</v>
+        <v>1.010655320766712</v>
       </c>
       <c r="L23">
-        <v>0.9541620669889441</v>
+        <v>1.010865712380482</v>
       </c>
       <c r="M23">
-        <v>0.8520423009083831</v>
+        <v>1.003943940924817</v>
       </c>
       <c r="N23">
-        <v>0.9508013479741292</v>
+        <v>1.012218252747495</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9254362179451715</v>
+        <v>1.006592838203988</v>
       </c>
       <c r="D24">
-        <v>0.9344570120648478</v>
+        <v>1.009518879954498</v>
       </c>
       <c r="E24">
-        <v>0.9421367389790607</v>
+        <v>1.009471464984715</v>
       </c>
       <c r="F24">
-        <v>0.8381078705031477</v>
+        <v>1.005127205652192</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.018765037902962</v>
+        <v>1.021941104499826</v>
       </c>
       <c r="J24">
-        <v>0.9494530157879271</v>
+        <v>1.012986936788503</v>
       </c>
       <c r="K24">
-        <v>0.9466046298274255</v>
+        <v>1.012984029783959</v>
       </c>
       <c r="L24">
-        <v>0.9541620669889441</v>
+        <v>1.012936790017987</v>
       </c>
       <c r="M24">
-        <v>0.8520423009083831</v>
+        <v>1.008608660846629</v>
       </c>
       <c r="N24">
-        <v>0.9508013479741292</v>
+        <v>1.014425494429968</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9254362179451715</v>
+        <v>1.009721914044853</v>
       </c>
       <c r="D25">
-        <v>0.9344570120648478</v>
+        <v>1.012490885948267</v>
       </c>
       <c r="E25">
-        <v>0.9421367389790607</v>
+        <v>1.01215244972749</v>
       </c>
       <c r="F25">
-        <v>0.8381078705031477</v>
+        <v>1.010614466441117</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.018765037902962</v>
+        <v>1.022580772358041</v>
       </c>
       <c r="J25">
-        <v>0.9494530157879271</v>
+        <v>1.015476422491119</v>
       </c>
       <c r="K25">
-        <v>0.9466046298274255</v>
+        <v>1.015618517275667</v>
       </c>
       <c r="L25">
-        <v>0.9541620669889441</v>
+        <v>1.015281199431104</v>
       </c>
       <c r="M25">
-        <v>0.8520423009083831</v>
+        <v>1.013748308825956</v>
       </c>
       <c r="N25">
-        <v>0.9508013479741292</v>
+        <v>1.01691851548783</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_66/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_66/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012165647470493</v>
+        <v>0.9197041637739337</v>
       </c>
       <c r="D2">
-        <v>1.014811027772548</v>
+        <v>0.9290438829080871</v>
       </c>
       <c r="E2">
-        <v>1.014247446349982</v>
+        <v>0.9373410779433042</v>
       </c>
       <c r="F2">
-        <v>1.014780947268809</v>
+        <v>0.8222825110024008</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.023038559704333</v>
+        <v>1.015746054782945</v>
       </c>
       <c r="J2">
-        <v>1.0174099303484</v>
+        <v>0.9445838059403004</v>
       </c>
       <c r="K2">
-        <v>1.017668062636548</v>
+        <v>0.9415890290956005</v>
       </c>
       <c r="L2">
-        <v>1.0171061698744</v>
+        <v>0.949748343104201</v>
       </c>
       <c r="M2">
-        <v>1.017638072211476</v>
+        <v>0.8369343473891043</v>
       </c>
       <c r="N2">
-        <v>1.018854769148045</v>
+        <v>0.9459252232900123</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013911306951471</v>
+        <v>0.9354058636977539</v>
       </c>
       <c r="D3">
-        <v>1.016467873830169</v>
+        <v>0.9438448064902978</v>
       </c>
       <c r="E3">
-        <v>1.015744682139577</v>
+        <v>0.9504699606910334</v>
       </c>
       <c r="F3">
-        <v>1.017689380109776</v>
+        <v>0.8643240097768308</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023341304150576</v>
+        <v>1.023767914250567</v>
       </c>
       <c r="J3">
-        <v>1.018784939528664</v>
+        <v>0.9578269522837061</v>
       </c>
       <c r="K3">
-        <v>1.019127572552041</v>
+        <v>0.9552504703824179</v>
       </c>
       <c r="L3">
-        <v>1.018406387168591</v>
+        <v>0.9617784292680358</v>
       </c>
       <c r="M3">
-        <v>1.020345697098052</v>
+        <v>0.8770478941799345</v>
       </c>
       <c r="N3">
-        <v>1.02023173099906</v>
+        <v>0.959187176420236</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015028022685198</v>
+        <v>0.9440307437972262</v>
       </c>
       <c r="D4">
-        <v>1.017527532453945</v>
+        <v>0.9519432558160209</v>
       </c>
       <c r="E4">
-        <v>1.016702796726788</v>
+        <v>0.9576744752763197</v>
       </c>
       <c r="F4">
-        <v>1.019518802689477</v>
+        <v>0.8858161213989773</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023523697959828</v>
+        <v>1.027855545077543</v>
       </c>
       <c r="J4">
-        <v>1.01966169489643</v>
+        <v>0.9649832312408625</v>
       </c>
       <c r="K4">
-        <v>1.020059127607024</v>
+        <v>0.9626585070874915</v>
       </c>
       <c r="L4">
-        <v>1.019236562013047</v>
+        <v>0.9683120796386678</v>
       </c>
       <c r="M4">
-        <v>1.022045173828678</v>
+        <v>0.8975206262836067</v>
       </c>
       <c r="N4">
-        <v>1.021109731460014</v>
+        <v>0.9663536181143481</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015494476271415</v>
+        <v>0.9474081781460533</v>
       </c>
       <c r="D5">
-        <v>1.017970095236988</v>
+        <v>0.9551096010237512</v>
       </c>
       <c r="E5">
-        <v>1.017103078186925</v>
+        <v>0.9604951603518322</v>
       </c>
       <c r="F5">
-        <v>1.020275525039779</v>
+        <v>0.8939592540587459</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023597172999848</v>
+        <v>1.029397291991586</v>
       </c>
       <c r="J5">
-        <v>1.02002723344293</v>
+        <v>0.9677648541657867</v>
       </c>
       <c r="K5">
-        <v>1.020447734246874</v>
+        <v>0.9655427109137631</v>
       </c>
       <c r="L5">
-        <v>1.01958294663798</v>
+        <v>0.9708577180193084</v>
       </c>
       <c r="M5">
-        <v>1.022747255763258</v>
+        <v>0.905269594102975</v>
       </c>
       <c r="N5">
-        <v>1.021475789113178</v>
+        <v>0.9691391912628823</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015572620861958</v>
+        <v>0.9479627969949139</v>
       </c>
       <c r="D6">
-        <v>1.018044234017085</v>
+        <v>0.9556293135064298</v>
       </c>
       <c r="E6">
-        <v>1.017170141451349</v>
+        <v>0.9609583415806823</v>
       </c>
       <c r="F6">
-        <v>1.020401862657957</v>
+        <v>0.8952824525916736</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023609322736973</v>
+        <v>1.029647323471759</v>
       </c>
       <c r="J6">
-        <v>1.020088431693858</v>
+        <v>0.9682205546335619</v>
       </c>
       <c r="K6">
-        <v>1.020512807540291</v>
+        <v>0.9660154676707651</v>
       </c>
       <c r="L6">
-        <v>1.01964095382505</v>
+        <v>0.971275078109335</v>
       </c>
       <c r="M6">
-        <v>1.02286441810649</v>
+        <v>0.9065282786412158</v>
       </c>
       <c r="N6">
-        <v>1.021537074272642</v>
+        <v>0.9695955388775913</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015034267223736</v>
+        <v>0.9440767484706144</v>
       </c>
       <c r="D7">
-        <v>1.01753345738836</v>
+        <v>0.9519864027387458</v>
       </c>
       <c r="E7">
-        <v>1.016708155103394</v>
+        <v>0.9577128975719014</v>
       </c>
       <c r="F7">
-        <v>1.019528962375987</v>
+        <v>0.8859280386736071</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023524692286537</v>
+        <v>1.027876766778127</v>
       </c>
       <c r="J7">
-        <v>1.019666591151257</v>
+        <v>0.9650211967379737</v>
       </c>
       <c r="K7">
-        <v>1.020064331978332</v>
+        <v>0.9626978549520737</v>
       </c>
       <c r="L7">
-        <v>1.019241200656053</v>
+        <v>0.9683468016485169</v>
       </c>
       <c r="M7">
-        <v>1.022054603462768</v>
+        <v>0.8976271583944904</v>
       </c>
       <c r="N7">
-        <v>1.021114634668085</v>
+        <v>0.9663916375268202</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01275829815547</v>
+        <v>0.9254362179451715</v>
       </c>
       <c r="D8">
-        <v>1.015373576949917</v>
+        <v>0.9344570120648477</v>
       </c>
       <c r="E8">
-        <v>1.014755690732203</v>
+        <v>0.9421367389790606</v>
       </c>
       <c r="F8">
-        <v>1.015774871811594</v>
+        <v>0.8381078705031483</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023143687643323</v>
+        <v>1.018765037902962</v>
       </c>
       <c r="J8">
-        <v>1.017877340333717</v>
+        <v>0.9494530157879271</v>
       </c>
       <c r="K8">
-        <v>1.018164005428259</v>
+        <v>0.9466046298274254</v>
       </c>
       <c r="L8">
-        <v>1.017547924114381</v>
+        <v>0.9541620669889439</v>
       </c>
       <c r="M8">
-        <v>1.018564129348913</v>
+        <v>0.8520423009083838</v>
       </c>
       <c r="N8">
-        <v>1.019322842909153</v>
+        <v>0.9508013479741292</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008646478980307</v>
+        <v>0.9254362179451715</v>
       </c>
       <c r="D9">
-        <v>1.011469580297998</v>
+        <v>0.9344570120648477</v>
       </c>
       <c r="E9">
-        <v>1.011230828879749</v>
+        <v>0.9421367389790606</v>
       </c>
       <c r="F9">
-        <v>1.008747308339223</v>
+        <v>0.8381078705031483</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022367454386645</v>
+        <v>1.018765037902962</v>
       </c>
       <c r="J9">
-        <v>1.014622491928608</v>
+        <v>0.9494530157879271</v>
       </c>
       <c r="K9">
-        <v>1.014714312314066</v>
+        <v>0.9466046298274254</v>
       </c>
       <c r="L9">
-        <v>1.014476382028318</v>
+        <v>0.9541620669889439</v>
       </c>
       <c r="M9">
-        <v>1.01200142837174</v>
+        <v>0.8520423009083838</v>
       </c>
       <c r="N9">
-        <v>1.016063372245973</v>
+        <v>0.9508013479741292</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005832833329844</v>
+        <v>0.9254362179451715</v>
       </c>
       <c r="D10">
-        <v>1.008796833167907</v>
+        <v>0.9344570120648477</v>
       </c>
       <c r="E10">
-        <v>1.008820543878717</v>
+        <v>0.9421367389790606</v>
       </c>
       <c r="F10">
-        <v>1.003769822999736</v>
+        <v>0.8381078705031483</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021777237823404</v>
+        <v>1.018765037902962</v>
       </c>
       <c r="J10">
-        <v>1.012380079595129</v>
+        <v>0.9494530157879271</v>
       </c>
       <c r="K10">
-        <v>1.012342526683091</v>
+        <v>0.9466046298274254</v>
       </c>
       <c r="L10">
-        <v>1.012366147546186</v>
+        <v>0.9541620669889439</v>
       </c>
       <c r="M10">
-        <v>1.00733467180681</v>
+        <v>0.8520423009083838</v>
       </c>
       <c r="N10">
-        <v>1.013817775429773</v>
+        <v>0.9508013479741292</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.004596263617348</v>
+        <v>0.9254362179451715</v>
       </c>
       <c r="D11">
-        <v>1.007621867930976</v>
+        <v>0.9344570120648477</v>
       </c>
       <c r="E11">
-        <v>1.007761659066393</v>
+        <v>0.9421367389790606</v>
       </c>
       <c r="F11">
-        <v>1.001541439819525</v>
+        <v>0.8381078705031483</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021503858276539</v>
+        <v>1.018765037902962</v>
       </c>
       <c r="J11">
-        <v>1.011390929186265</v>
+        <v>0.9494530157879271</v>
       </c>
       <c r="K11">
-        <v>1.011297463688668</v>
+        <v>0.9466046298274254</v>
       </c>
       <c r="L11">
-        <v>1.011436703752643</v>
+        <v>0.9541620669889439</v>
       </c>
       <c r="M11">
-        <v>1.00524117088926</v>
+        <v>0.8520423009083838</v>
       </c>
       <c r="N11">
-        <v>1.012827220313871</v>
+        <v>0.9508013479741292</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.00413410963464</v>
+        <v>0.9254362179451715</v>
       </c>
       <c r="D12">
-        <v>1.007182689123523</v>
+        <v>0.9344570120648477</v>
       </c>
       <c r="E12">
-        <v>1.007365975039413</v>
+        <v>0.9421367389790606</v>
       </c>
       <c r="F12">
-        <v>1.000702393736418</v>
+        <v>0.8381078705031483</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021399584338426</v>
+        <v>1.018765037902962</v>
       </c>
       <c r="J12">
-        <v>1.011020696270859</v>
+        <v>0.9494530157879271</v>
       </c>
       <c r="K12">
-        <v>1.010906476938684</v>
+        <v>0.9466046298274254</v>
       </c>
       <c r="L12">
-        <v>1.011089029886262</v>
+        <v>0.9541620669889439</v>
       </c>
       <c r="M12">
-        <v>1.004452288751216</v>
+        <v>0.8520423009083838</v>
       </c>
       <c r="N12">
-        <v>1.012456461625258</v>
+        <v>0.9508013479741292</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.004233373220064</v>
+        <v>0.9254362179451715</v>
       </c>
       <c r="D13">
-        <v>1.007277020215836</v>
+        <v>0.9344570120648477</v>
       </c>
       <c r="E13">
-        <v>1.007450959079233</v>
+        <v>0.9421367389790606</v>
       </c>
       <c r="F13">
-        <v>1.000882890230933</v>
+        <v>0.8381078705031483</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021422075816191</v>
+        <v>1.018765037902962</v>
       </c>
       <c r="J13">
-        <v>1.011100241509143</v>
+        <v>0.9494530157879271</v>
       </c>
       <c r="K13">
-        <v>1.010990473309029</v>
+        <v>0.9466046298274254</v>
       </c>
       <c r="L13">
-        <v>1.01116371870927</v>
+        <v>0.9541620669889439</v>
       </c>
       <c r="M13">
-        <v>1.004622021867884</v>
+        <v>0.8520423009083838</v>
       </c>
       <c r="N13">
-        <v>1.012536119826905</v>
+        <v>0.9508013479741292</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.004558120274623</v>
+        <v>0.9254362179451715</v>
       </c>
       <c r="D14">
-        <v>1.007585621816855</v>
+        <v>0.9344570120648477</v>
       </c>
       <c r="E14">
-        <v>1.00772900047544</v>
+        <v>0.9421367389790606</v>
       </c>
       <c r="F14">
-        <v>1.001472317108231</v>
+        <v>0.8381078705031483</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021495294941363</v>
+        <v>1.018765037902962</v>
       </c>
       <c r="J14">
-        <v>1.011360383643868</v>
+        <v>0.9494530157879271</v>
       </c>
       <c r="K14">
-        <v>1.011265202338926</v>
+        <v>0.9466046298274254</v>
       </c>
       <c r="L14">
-        <v>1.01140801510943</v>
+        <v>0.9541620669889439</v>
       </c>
       <c r="M14">
-        <v>1.005176193393203</v>
+        <v>0.8520423009083838</v>
       </c>
       <c r="N14">
-        <v>1.0127966313933</v>
+        <v>0.9508013479741292</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004757828754639</v>
+        <v>0.9254362179451715</v>
       </c>
       <c r="D15">
-        <v>1.007775394909173</v>
+        <v>0.9344570120648477</v>
       </c>
       <c r="E15">
-        <v>1.007899994786214</v>
+        <v>0.9421367389790606</v>
       </c>
       <c r="F15">
-        <v>1.00183397108711</v>
+        <v>0.8381078705031483</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021540044453077</v>
+        <v>1.018765037902962</v>
       </c>
       <c r="J15">
-        <v>1.0115202895921</v>
+        <v>0.9494530157879271</v>
       </c>
       <c r="K15">
-        <v>1.011434097642922</v>
+        <v>0.9466046298274254</v>
       </c>
       <c r="L15">
-        <v>1.011558208816757</v>
+        <v>0.9541620669889439</v>
       </c>
       <c r="M15">
-        <v>1.005516134070689</v>
+        <v>0.8520423009083838</v>
       </c>
       <c r="N15">
-        <v>1.01295676442632</v>
+        <v>0.9508013479741292</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005914507962533</v>
+        <v>0.9254362179451715</v>
       </c>
       <c r="D16">
-        <v>1.008874432111595</v>
+        <v>0.9344570120648477</v>
       </c>
       <c r="E16">
-        <v>1.008890491195339</v>
+        <v>0.9421367389790606</v>
       </c>
       <c r="F16">
-        <v>1.00391614458611</v>
+        <v>0.8381078705031483</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021795001453412</v>
+        <v>1.018765037902962</v>
       </c>
       <c r="J16">
-        <v>1.012445335987758</v>
+        <v>0.9494530157879271</v>
       </c>
       <c r="K16">
-        <v>1.012411495937899</v>
+        <v>0.9466046298274254</v>
       </c>
       <c r="L16">
-        <v>1.012427494330877</v>
+        <v>0.9541620669889439</v>
       </c>
       <c r="M16">
-        <v>1.007472049796538</v>
+        <v>0.8520423009083838</v>
       </c>
       <c r="N16">
-        <v>1.013883124493964</v>
+        <v>0.9508013479741292</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006635112148766</v>
+        <v>0.9254362179451715</v>
       </c>
       <c r="D17">
-        <v>1.009559040388045</v>
+        <v>0.9344570120648477</v>
       </c>
       <c r="E17">
-        <v>1.009507674122961</v>
+        <v>0.9421367389790606</v>
       </c>
       <c r="F17">
-        <v>1.005202431385152</v>
+        <v>0.8381078705031483</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021950124661035</v>
+        <v>1.018765037902962</v>
       </c>
       <c r="J17">
-        <v>1.013020667580809</v>
+        <v>0.9494530157879271</v>
       </c>
       <c r="K17">
-        <v>1.013019694094447</v>
+        <v>0.9466046298274254</v>
       </c>
       <c r="L17">
-        <v>1.012968517364111</v>
+        <v>0.9541620669889439</v>
       </c>
       <c r="M17">
-        <v>1.008679236589768</v>
+        <v>0.8520423009083838</v>
       </c>
       <c r="N17">
-        <v>1.014459273123868</v>
+        <v>0.9508013479741292</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007053675044783</v>
+        <v>0.9254362179451715</v>
       </c>
       <c r="D18">
-        <v>1.009956664615718</v>
+        <v>0.9344570120648477</v>
       </c>
       <c r="E18">
-        <v>1.009866204153707</v>
+        <v>0.9421367389790606</v>
       </c>
       <c r="F18">
-        <v>1.005945672109357</v>
+        <v>0.8381078705031483</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02203889058719</v>
+        <v>1.018765037902962</v>
       </c>
       <c r="J18">
-        <v>1.013354501791362</v>
+        <v>0.9494530157879271</v>
       </c>
       <c r="K18">
-        <v>1.01337270923263</v>
+        <v>0.9466046298274254</v>
       </c>
       <c r="L18">
-        <v>1.013282577853805</v>
+        <v>0.9541620669889439</v>
       </c>
       <c r="M18">
-        <v>1.009376371041654</v>
+        <v>0.8520423009083838</v>
       </c>
       <c r="N18">
-        <v>1.014793581417292</v>
+        <v>0.9508013479741292</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007196099603628</v>
+        <v>0.9254362179451715</v>
       </c>
       <c r="D19">
-        <v>1.01009195922532</v>
+        <v>0.9344570120648477</v>
       </c>
       <c r="E19">
-        <v>1.009988207972254</v>
+        <v>0.9421367389790606</v>
       </c>
       <c r="F19">
-        <v>1.006197915851226</v>
+        <v>0.8381078705031483</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022068868140796</v>
+        <v>1.018765037902962</v>
       </c>
       <c r="J19">
-        <v>1.013468036905287</v>
+        <v>0.9494530157879271</v>
       </c>
       <c r="K19">
-        <v>1.013492786357886</v>
+        <v>0.9466046298274254</v>
       </c>
       <c r="L19">
-        <v>1.013389410700543</v>
+        <v>0.9541620669889439</v>
       </c>
       <c r="M19">
-        <v>1.009612898699405</v>
+        <v>0.8520423009083838</v>
       </c>
       <c r="N19">
-        <v>1.014907277764101</v>
+        <v>0.9508013479741292</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006557980171656</v>
+        <v>0.9254362179451715</v>
       </c>
       <c r="D20">
-        <v>1.009485764498548</v>
+        <v>0.9344570120648477</v>
       </c>
       <c r="E20">
-        <v>1.009441608061717</v>
+        <v>0.9421367389790606</v>
       </c>
       <c r="F20">
-        <v>1.005065154392007</v>
+        <v>0.8381078705031483</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021933659147563</v>
+        <v>1.018765037902962</v>
       </c>
       <c r="J20">
-        <v>1.012959121264826</v>
+        <v>0.9494530157879271</v>
       </c>
       <c r="K20">
-        <v>1.012954620440218</v>
+        <v>0.9466046298274254</v>
       </c>
       <c r="L20">
-        <v>1.012910627357588</v>
+        <v>0.9541620669889439</v>
       </c>
       <c r="M20">
-        <v>1.008550442940776</v>
+        <v>0.8520423009083838</v>
       </c>
       <c r="N20">
-        <v>1.014397639405058</v>
+        <v>0.9508013479741292</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.004462569476825</v>
+        <v>0.9254362179451715</v>
       </c>
       <c r="D21">
-        <v>1.007494822872056</v>
+        <v>0.9344570120648477</v>
       </c>
       <c r="E21">
-        <v>1.007647190233651</v>
+        <v>0.9421367389790606</v>
       </c>
       <c r="F21">
-        <v>1.001299061091617</v>
+        <v>0.8381078705031483</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021473809499484</v>
+        <v>1.018765037902962</v>
       </c>
       <c r="J21">
-        <v>1.011283856809561</v>
+        <v>0.9494530157879271</v>
       </c>
       <c r="K21">
-        <v>1.011184379636942</v>
+        <v>0.9466046298274254</v>
       </c>
       <c r="L21">
-        <v>1.011336143839262</v>
+        <v>0.9541620669889439</v>
       </c>
       <c r="M21">
-        <v>1.005013317366617</v>
+        <v>0.8520423009083838</v>
       </c>
       <c r="N21">
-        <v>1.012719995882111</v>
+        <v>0.9508013479741292</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.0031286359874</v>
+        <v>0.9254362179451715</v>
       </c>
       <c r="D22">
-        <v>1.006227110253995</v>
+        <v>0.9344570120648477</v>
       </c>
       <c r="E22">
-        <v>1.006505229543508</v>
+        <v>0.9421367389790606</v>
       </c>
       <c r="F22">
-        <v>0.9988654566840138</v>
+        <v>0.8381078705031483</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021168867884034</v>
+        <v>1.018765037902962</v>
       </c>
       <c r="J22">
-        <v>1.010214197152283</v>
+        <v>0.9494530157879271</v>
       </c>
       <c r="K22">
-        <v>1.010055088217417</v>
+        <v>0.9466046298274254</v>
       </c>
       <c r="L22">
-        <v>1.010332060925878</v>
+        <v>0.9541620669889439</v>
       </c>
       <c r="M22">
-        <v>1.002724043203645</v>
+        <v>0.8520423009083838</v>
       </c>
       <c r="N22">
-        <v>1.011648817185427</v>
+        <v>0.9508013479741292</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.003837373803135</v>
+        <v>0.9254362179451715</v>
       </c>
       <c r="D23">
-        <v>1.006900691127567</v>
+        <v>0.9344570120648477</v>
       </c>
       <c r="E23">
-        <v>1.007111935228735</v>
+        <v>0.9421367389790606</v>
       </c>
       <c r="F23">
-        <v>1.000161905883748</v>
+        <v>0.8381078705031483</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021332041000067</v>
+        <v>1.018765037902962</v>
       </c>
       <c r="J23">
-        <v>1.010782825197304</v>
+        <v>0.9494530157879271</v>
       </c>
       <c r="K23">
-        <v>1.010655320766712</v>
+        <v>0.9466046298274254</v>
       </c>
       <c r="L23">
-        <v>1.010865712380482</v>
+        <v>0.9541620669889439</v>
       </c>
       <c r="M23">
-        <v>1.003943940924817</v>
+        <v>0.8520423009083838</v>
       </c>
       <c r="N23">
-        <v>1.012218252747495</v>
+        <v>0.9508013479741292</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006592838203988</v>
+        <v>0.9254362179451715</v>
       </c>
       <c r="D24">
-        <v>1.009518879954498</v>
+        <v>0.9344570120648477</v>
       </c>
       <c r="E24">
-        <v>1.009471464984715</v>
+        <v>0.9421367389790606</v>
       </c>
       <c r="F24">
-        <v>1.005127205652192</v>
+        <v>0.8381078705031483</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021941104499826</v>
+        <v>1.018765037902962</v>
       </c>
       <c r="J24">
-        <v>1.012986936788503</v>
+        <v>0.9494530157879271</v>
       </c>
       <c r="K24">
-        <v>1.012984029783959</v>
+        <v>0.9466046298274254</v>
       </c>
       <c r="L24">
-        <v>1.012936790017987</v>
+        <v>0.9541620669889439</v>
       </c>
       <c r="M24">
-        <v>1.008608660846629</v>
+        <v>0.8520423009083838</v>
       </c>
       <c r="N24">
-        <v>1.014425494429968</v>
+        <v>0.9508013479741292</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009721914044853</v>
+        <v>0.9254362179451715</v>
       </c>
       <c r="D25">
-        <v>1.012490885948267</v>
+        <v>0.9344570120648477</v>
       </c>
       <c r="E25">
-        <v>1.01215244972749</v>
+        <v>0.9421367389790606</v>
       </c>
       <c r="F25">
-        <v>1.010614466441117</v>
+        <v>0.8381078705031483</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.022580772358041</v>
+        <v>1.018765037902962</v>
       </c>
       <c r="J25">
-        <v>1.015476422491119</v>
+        <v>0.9494530157879271</v>
       </c>
       <c r="K25">
-        <v>1.015618517275667</v>
+        <v>0.9466046298274254</v>
       </c>
       <c r="L25">
-        <v>1.015281199431104</v>
+        <v>0.9541620669889439</v>
       </c>
       <c r="M25">
-        <v>1.013748308825956</v>
+        <v>0.8520423009083838</v>
       </c>
       <c r="N25">
-        <v>1.01691851548783</v>
+        <v>0.9508013479741292</v>
       </c>
     </row>
   </sheetData>
